--- a/xlsx/宏观经济学_intext.xlsx
+++ b/xlsx/宏观经济学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_宏观经济学</t>
+    <t>政策_政策_货币政策_宏观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
   </si>
   <si>
-    <t>亞當·史密斯</t>
+    <t>亚当·史密斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AF%8C%E8%AB%96</t>
   </si>
   <si>
-    <t>國富論</t>
+    <t>国富论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>失業</t>
+    <t>失业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>自由市場經濟</t>
+    <t>自由市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%83%B9%E6%A0%BC%E6%A9%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>自由價格機制</t>
+    <t>自由价格机制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%85%E5%88%86%E5%B0%B1%E4%B8%9A</t>
@@ -521,43 +521,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E5%B7%B4%E8%92%82%E6%96%AF%E7%89%B9%C2%B7%E8%B3%BD%E4%BC%8A</t>
   </si>
   <si>
-    <t>讓-巴蒂斯特·賽伊</t>
+    <t>让-巴蒂斯特·赛伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E4%BC%8A%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>賽伊定律</t>
+    <t>赛伊定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%9B%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>凱因斯</t>
+    <t>凯因斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>貨幣學派</t>
+    <t>货币学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%8F%A4%E5%85%B8%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興古典學派</t>
+    <t>新兴古典学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾經濟學獎</t>
+    <t>诺贝尔经济学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%88%90%E9%95%B7</t>
   </si>
   <si>
-    <t>經濟成長</t>
+    <t>经济成长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>經濟發展</t>
+    <t>经济发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%8F%A3</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>後凱恩斯學派</t>
+    <t>后凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%9C%E5%90%88%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典綜合學派</t>
+    <t>新古典综合学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E6%B4%BE%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新凱恩斯學派</t>
+    <t>新凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%A4%E5%87%BA%E6%95%88%E5%BA%94</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國民生產總值</t>
+    <t>国民生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E4%BB%B7%E6%8C%87%E6%95%B0</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%B6%88%E8%B2%BB%E5%82%BE%E5%90%91</t>
   </si>
   <si>
-    <t>邊際消費傾向</t>
+    <t>边际消费倾向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E6%95%88%E5%BA%94</t>
@@ -761,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍事凱因斯主義</t>
+    <t>军事凯因斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%BF%97%E8%80%90</t>
   </si>
   <si>
-    <t>顧志耐</t>
+    <t>顾志耐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%98%86</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%91%E4%B8%96%E7%95%8C%E5%AD%A6%E6%9C%AF%E5%90%8D%E8%91%97%E4%B8%9B%E4%B9%A6</t>
   </si>
   <si>
-    <t>汉译世界学术名著丛书</t>
+    <t>汉译世界学术名着丛书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8A%A1%E5%8D%B0%E4%B9%A6%E9%A6%86</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%B4%BE</t>
@@ -839,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典學派</t>
+    <t>新古典学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -857,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興凱恩斯學派</t>
+    <t>新兴凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E8%B2%A8</t>
   </si>
   <si>
-    <t>財貨</t>
+    <t>财货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%80%E5%B0%91%E6%80%A7</t>
@@ -881,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E7%9A%84%E4%BA%A4%E5%8F%89%E5%BD%88%E6%80%A7</t>
   </si>
   <si>
-    <t>需求的交叉彈性</t>
+    <t>需求的交叉弹性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%8A%A9%E5%93%81</t>
   </si>
   <si>
-    <t>輔助品</t>
+    <t>辅助品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%9B%BF%E5%93%81</t>
@@ -899,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%93%81</t>
   </si>
   <si>
-    <t>獨立品</t>
+    <t>独立品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E7%9A%84%E6%94%B6%E5%85%A5%E5%BD%88%E6%80%A7</t>
   </si>
   <si>
-    <t>需求的收入彈性</t>
+    <t>需求的收入弹性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A3%E7%AD%89%E7%89%A9%E5%93%81</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E5%93%81</t>
   </si>
   <si>
-    <t>消費品</t>
+    <t>消费品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%93%81</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A8%E5%93%81</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%9C%98%E5%93%81</t>
   </si>
   <si>
-    <t>集團品</t>
+    <t>集团品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%B6%88%E5%93%81</t>
@@ -989,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E4%BC%AF%E5%80%AB%E5%95%86%E5%93%81</t>
   </si>
   <si>
-    <t>韋伯倫商品</t>
+    <t>韦伯伦商品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
